--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.25281</v>
+        <v>2.186996666666667</v>
       </c>
       <c r="H2">
-        <v>12.75843</v>
+        <v>6.56099</v>
       </c>
       <c r="I2">
-        <v>0.9601581656374301</v>
+        <v>0.9253339937566305</v>
       </c>
       <c r="J2">
-        <v>0.9601581656374301</v>
+        <v>0.9253339937566305</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N2">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O2">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P2">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q2">
-        <v>21.56247534811333</v>
+        <v>0.1348669814411111</v>
       </c>
       <c r="R2">
-        <v>194.06227813302</v>
+        <v>1.21380283297</v>
       </c>
       <c r="S2">
-        <v>0.940195964070758</v>
+        <v>0.2951605289194913</v>
       </c>
       <c r="T2">
-        <v>0.9401959640707581</v>
+        <v>0.2951605289194913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.25281</v>
+        <v>2.186996666666667</v>
       </c>
       <c r="H3">
-        <v>12.75843</v>
+        <v>6.56099</v>
       </c>
       <c r="I3">
-        <v>0.9601581656374301</v>
+        <v>0.9253339937566305</v>
       </c>
       <c r="J3">
-        <v>0.9601581656374301</v>
+        <v>0.9253339937566305</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.234632</v>
       </c>
       <c r="O3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P3">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q3">
-        <v>0.3326151053066667</v>
+        <v>0.1710464672977778</v>
       </c>
       <c r="R3">
-        <v>2.99353594776</v>
+        <v>1.53941820568</v>
       </c>
       <c r="S3">
-        <v>0.01450312983781153</v>
+        <v>0.3743404443248924</v>
       </c>
       <c r="T3">
-        <v>0.01450312983781154</v>
+        <v>0.3743404443248925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.186996666666667</v>
+      </c>
+      <c r="H4">
+        <v>6.56099</v>
+      </c>
+      <c r="I4">
+        <v>0.9253339937566305</v>
+      </c>
+      <c r="J4">
+        <v>0.9253339937566305</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>4.25281</v>
-      </c>
-      <c r="H4">
-        <v>12.75843</v>
-      </c>
-      <c r="I4">
-        <v>0.9601581656374301</v>
-      </c>
-      <c r="J4">
-        <v>0.9601581656374301</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N4">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O4">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P4">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q4">
-        <v>0.12519847359</v>
+        <v>0.11689715883</v>
       </c>
       <c r="R4">
-        <v>1.12678626231</v>
+        <v>1.05207442947</v>
       </c>
       <c r="S4">
-        <v>0.005459071728860518</v>
+        <v>0.2558330205122468</v>
       </c>
       <c r="T4">
-        <v>0.005459071728860519</v>
+        <v>0.2558330205122468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.529412</v>
       </c>
       <c r="I5">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="J5">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.070171333333334</v>
+        <v>0.06166766666666667</v>
       </c>
       <c r="N5">
-        <v>15.210514</v>
+        <v>0.185003</v>
       </c>
       <c r="O5">
-        <v>0.9792094653973811</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="P5">
-        <v>0.9792094653973812</v>
+        <v>0.3189772891852935</v>
       </c>
       <c r="Q5">
-        <v>0.8947365153075556</v>
+        <v>0.01088253424844444</v>
       </c>
       <c r="R5">
-        <v>8.052628637768001</v>
+        <v>0.097942808236</v>
       </c>
       <c r="S5">
-        <v>0.03901350132662311</v>
+        <v>0.02381676026580222</v>
       </c>
       <c r="T5">
-        <v>0.03901350132662312</v>
+        <v>0.02381676026580222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.529412</v>
       </c>
       <c r="I6">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="J6">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.234632</v>
       </c>
       <c r="O6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="P6">
-        <v>0.01510493828710314</v>
+        <v>0.4045463009579509</v>
       </c>
       <c r="Q6">
         <v>0.01380188848711111</v>
@@ -818,10 +818,10 @@
         <v>0.124216996384</v>
       </c>
       <c r="S6">
-        <v>0.000601808449291604</v>
+        <v>0.03020585663305842</v>
       </c>
       <c r="T6">
-        <v>0.0006018084492916041</v>
+        <v>0.03020585663305842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>0.529412</v>
       </c>
       <c r="I7">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="J7">
-        <v>0.03984183436256993</v>
+        <v>0.07466600624336955</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.029439</v>
+        <v>0.05345100000000001</v>
       </c>
       <c r="N7">
-        <v>0.08831699999999999</v>
+        <v>0.160353</v>
       </c>
       <c r="O7">
-        <v>0.005685596315515734</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="P7">
-        <v>0.005685596315515735</v>
+        <v>0.2764764098567557</v>
       </c>
       <c r="Q7">
-        <v>0.005195119955999999</v>
+        <v>0.009432533604000001</v>
       </c>
       <c r="R7">
-        <v>0.04675607960399999</v>
+        <v>0.08489280243600002</v>
       </c>
       <c r="S7">
-        <v>0.0002265245866552158</v>
+        <v>0.02064338934450892</v>
       </c>
       <c r="T7">
-        <v>0.0002265245866552158</v>
+        <v>0.02064338934450892</v>
       </c>
     </row>
   </sheetData>
